--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>70.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1276,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1292,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.64</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1308,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1371,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1403,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.64</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.64</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,100 +1025,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2858</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -892,26 +1099,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>78.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3486</t>
+          <t>0.2858</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +1127,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1051,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
+++ b/数据整理/stocks/A股/创业板/300121-阳谷华泰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.64</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -616,7 +633,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1025,100 +1268,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2858</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1193,26 +1342,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>78.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3486</t>
+          <t>0.2858</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1221,6 +1370,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1804,98 +2047,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4624</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>